--- a/documents/テスト資料/検索ページ_単体テスト.xlsx
+++ b/documents/テスト資料/検索ページ_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3A46BC-4E41-4C15-B95A-9CD554EA4FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD49FB7-3988-4E71-AA86-4CA8D3D70253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>カテゴリ1つとキーワード複数でOR検索</t>
-  </si>
-  <si>
-    <t>カテゴリ1つとキーワード複数でOR検索</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -441,9 +438,6 @@
   </si>
   <si>
     <t>プルダウンメニューで完了を選択し、並び替えボタンをクリック</t>
-  </si>
-  <si>
-    <t>プルダウンメニューで完了を選択し、並び替えボタンをクリック</t>
     <rPh sb="10" eb="12">
       <t>カンリョウ</t>
     </rPh>
@@ -457,9 +451,6 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンメニューで未完了を選択し、並び替えボタンをクリック</t>
   </si>
   <si>
     <t>プルダウンメニューで未完了を選択し、並び替えボタンをクリック</t>
@@ -668,25 +659,6 @@
   </si>
   <si>
     <t>(キーワードAND キーワード…)AND(カテゴリORキーワード…)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード複数(キーワード同士はAND)・カテゴリ複数(カテゴリ同士はOR)でAND検索</t>
-    <rPh sb="5" eb="7">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ドウシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ドウシ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ケンサク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1767,7 +1739,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>5</v>
@@ -1787,7 +1759,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -1827,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>5</v>
@@ -1867,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>5</v>
@@ -1887,7 +1859,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>5</v>
@@ -1907,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>5</v>
@@ -1927,7 +1899,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -1947,7 +1919,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>6</v>
@@ -1969,7 +1941,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>5</v>
@@ -1985,13 +1957,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>5</v>
@@ -2011,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>5</v>
@@ -2031,7 +2003,7 @@
         <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>5</v>
@@ -2051,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>5</v>
@@ -2071,7 +2043,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>5</v>
@@ -2091,7 +2063,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>5</v>
@@ -2111,7 +2083,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>5</v>
@@ -2131,7 +2103,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>5</v>
@@ -2147,13 +2119,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>5</v>
@@ -2168,7 +2140,7 @@
     </row>
     <row r="34" spans="2:8" ht="24" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -2179,10 +2151,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>1</v>
@@ -2204,9 +2176,7 @@
       <c r="D38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="10" t="s">
         <v>5</v>
       </c>
@@ -2221,11 +2191,9 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="10" t="s">
         <v>5</v>
       </c>
@@ -2240,11 +2208,9 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="10" t="s">
         <v>5</v>
       </c>
@@ -2253,7 +2219,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>13</v>
       </c>
@@ -2263,9 +2229,7 @@
       <c r="D41" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="10" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2238,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="6">
         <v>14</v>
       </c>
@@ -2282,9 +2246,7 @@
       <c r="D42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="E42" s="13"/>
       <c r="F42" s="10" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>

--- a/documents/テスト資料/検索ページ_単体テスト.xlsx
+++ b/documents/テスト資料/検索ページ_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD49FB7-3988-4E71-AA86-4CA8D3D70253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57820427-6150-4BA6-A613-9ED821B262C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -377,98 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プルダウンメニューで登録順(降順)を選択し、並び替えボタンをクリック</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンメニューで登録順(昇順)を選択し、並び替えボタンをクリック</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンメニューでアクセス数を選択し、並び替えボタンをクリック</t>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンメニューで完了を選択し、並び替えボタンをクリック</t>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンメニューで未完了を選択し、並び替えボタンをクリック</t>
-    <rPh sb="10" eb="13">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インフォボタンをクリックするとモーダルウィンドウで検索の解説が表示</t>
     <rPh sb="25" eb="27">
       <t>ケンサク</t>
@@ -662,9 +570,478 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正内容</t>
-    <rPh sb="0" eb="4">
+    <t>原因と修正内容</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
       <t>シュウセイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに何も入れず検索を行う。
+その後プルダウンメニューで登録順(降順)を選択し、並び替えボタンをクリック</t>
+    <rPh sb="23" eb="24">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに何も入れず検索を行う。
+その後プルダウンメニューで登録順(昇順)を選択し、並び替えボタンをクリック</t>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ページ遷移後、プルダウンメニューで登録順(降順)を選択し、並び替えボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ページ遷移後、プルダウンメニューで登録順(昇順)を選択し、並び替えボタンをクリック</t>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ページ遷移後、プルダウンメニューでアクセス数を選択し、並び替えボタンをクリック</t>
+    <rPh sb="23" eb="24">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ページ遷移後、プルダウンメニューで完了を選択し、並び替えボタンをクリック</t>
+    <rPh sb="19" eb="21">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ページ遷移後、プルダウンメニューで未完了を選択し、並び替えボタンをクリック</t>
+    <rPh sb="19" eb="22">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに何も入れず検索を行う。
+その後プルダウンメニューでアクセス数を選択し、並び替えボタンをクリック</t>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに何も入れず検索を行う。
+その後プルダウンメニューで完了を選択し、並び替えボタンをクリック</t>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに何も入れず検索を行う。
+その後プルダウンメニューで未完了を選択し、並び替えボタンをクリック</t>
+    <rPh sb="34" eb="37">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1～No.9の検索を行った後、プルダウンメニューで登録順(昇順)を選択し、並び替えボタンをクリック</t>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1～No.9の検索を行った後、プルダウンメニューでアクセス数を選択し、並び替えボタンをクリック</t>
+    <rPh sb="32" eb="33">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1～No.9の検索を行った後、プルダウンメニューで完了を選択し、並び替えボタンをクリック</t>
+    <rPh sb="28" eb="30">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1～No.9の検索を行った後、プルダウンメニューで未完了を選択し、並び替えボタンをクリック</t>
+    <rPh sb="28" eb="31">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1～No.9の検索を行った後、プルダウンメニューで登録順(降順)を選択し、並び替えボタンをクリック</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【原因】
+カテゴリーとキーワードがnull値の場合の処理を記載してなかった
+【修正内容】
+カテゴリーとキーワードがnull値の際は、半角空白に置き換える処理を追加</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【原因】
+①パラメータと？の数が一致できない繰り返し処理となっていた
+②キーワードの分割が、半角空白のみに適応されていた
+【修正内容】
+①カウントする変数を新たに作成
+　パラメータの番号を指定する変数をfor文の外で宣言することで、パラメータと？数を一致させた
+②全角空白を半角空白に置き換える処理を追加</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テキオウ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <rPh sb="132" eb="136">
+      <t>ゼンカククウハク</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【原因】
+カテゴリーとキーワードが空である際に実行されるSQL文の条件指定が誤っていた
+【修正内容】
+SQL文にwhere句を追加</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ジョウケンシテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影山</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>須田、横田</t>
+    <rPh sb="0" eb="2">
+      <t>スダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨコタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -819,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +1216,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -887,9 +1261,26 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -900,16 +1291,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -922,15 +1307,30 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -964,23 +1364,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1024,23 +1407,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1242,34 +1625,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}" name="テーブル1" displayName="テーブル1" ref="B6:H30" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="B6:H30" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}" name="テーブル1" displayName="テーブル1" ref="B6:H40" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="B6:H40" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7B947360-2DB2-4BDB-B18D-D77B6F290F63}" name="NO" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{7B947360-2DB2-4BDB-B18D-D77B6F290F63}" name="NO" dataDxfId="19">
       <calculatedColumnFormula>ROW()-ROW($B$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E00F62F2-3911-4904-8DBB-FD33E21B82CC}" name="テスト項目(大)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7C43C0DE-4736-4174-8B81-5DDA0E93E731}" name="テスト項目(小)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E5D45E38-4099-4DE6-B61C-21893CFE9B53}" name="操作手順" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D01E4F87-D327-48CD-91DC-D527DB9A4209}" name="結果" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{4CB2F8F0-43DF-40EC-9008-D2D02C7645F4}" name="担当者" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B86EBFCB-CC60-4D2C-B4F2-A86D09FA810F}" name="実施日" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{E00F62F2-3911-4904-8DBB-FD33E21B82CC}" name="テスト項目(大)" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7C43C0DE-4736-4174-8B81-5DDA0E93E731}" name="テスト項目(小)" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E5D45E38-4099-4DE6-B61C-21893CFE9B53}" name="操作手順" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D01E4F87-D327-48CD-91DC-D527DB9A4209}" name="結果" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{4CB2F8F0-43DF-40EC-9008-D2D02C7645F4}" name="担当者" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B86EBFCB-CC60-4D2C-B4F2-A86D09FA810F}" name="実施日" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}" name="テーブル2" displayName="テーブル2" ref="B37:H42" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B37:H42" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}" name="テーブル2" displayName="テーブル2" ref="B47:H57" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="B47:H57" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{29138843-D904-4676-A4D6-07D24B4BF3DD}" name="NO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F4DD42E9-F431-4A12-8FBC-11292EB3C321}" name="テスト項目(大)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{1BAD2B73-E4EB-419A-AD45-BAF56DE3B679}" name="テスト項目(小)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{81036B87-229F-4428-83CB-FC0E498E604B}" name="修正内容" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{29138843-D904-4676-A4D6-07D24B4BF3DD}" name="NO" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F4DD42E9-F431-4A12-8FBC-11292EB3C321}" name="テスト項目(大)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1BAD2B73-E4EB-419A-AD45-BAF56DE3B679}" name="テスト項目(小)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{81036B87-229F-4428-83CB-FC0E498E604B}" name="原因と修正内容" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{611EF19B-07C4-4E56-93D5-F225D9448597}" name="結果" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7BCB1C4A-9A11-45A6-B50F-BC305CF992E7}" name="担当者" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{317813A2-C759-4C31-9C5A-AA347693D67E}" name="実施日" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{7BCB1C4A-9A11-45A6-B50F-BC305CF992E7}" name="担当者" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{317813A2-C759-4C31-9C5A-AA347693D67E}" name="実施日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1572,9 +1955,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5312975-1390-471A-80BB-D684E35121BB}">
-  <dimension ref="B2:H42"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1589,10 +1972,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,25 +1985,25 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>44369</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1641,25 +2024,25 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B30" si="0">ROW()-ROW($B$6)</f>
+        <f t="shared" ref="B7:B40" si="0">ROW()-ROW($B$6)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1668,20 +2051,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1690,20 +2075,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1712,20 +2099,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1734,18 +2123,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9">
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1754,18 +2145,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9">
+      <c r="G12" s="9"/>
+      <c r="H12" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1774,18 +2167,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9">
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1794,18 +2189,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9">
+      <c r="F14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8">
         <v>44370</v>
       </c>
     </row>
@@ -1814,454 +2211,844 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G15" s="9"/>
+      <c r="H15" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="E16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="E17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="E18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G19" s="9"/>
+      <c r="H19" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>16</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>17</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>18</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B25" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>19</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B26" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B27" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>21</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>22</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>23</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="4">
+        <f>ROW()-ROW($B$6)</f>
+        <v>24</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8">
+        <v>44370</v>
+      </c>
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B36" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B37" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="2:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B49" s="4">
         <v>6</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="B50" s="4">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B51" s="4">
+        <v>13</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="6">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B53" s="6">
         <v>15</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
+      <c r="C53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="6">
         <v>16</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
+      <c r="C54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="6">
         <v>17</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
+      <c r="C55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="6">
         <v>18</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="2:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="8" t="s">
+      <c r="C56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="4">
-        <v>3</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B39" s="4">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="B40" s="4">
-        <v>9</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="4">
-        <v>13</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="F56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="8">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="6">
+        <v>18</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="9">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="6">
-        <v>14</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9">
+      <c r="E57" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="8">
         <v>44370</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E21:E25">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E30">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F30" xr:uid="{6C6762D0-0398-410B-8CE2-B48673163D08}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F40" xr:uid="{6C6762D0-0398-410B-8CE2-B48673163D08}">
       <formula1>結果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G30" xr:uid="{EC6A1F69-806A-41CB-B977-1762CC6ECC13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G40" xr:uid="{EC6A1F69-806A-41CB-B977-1762CC6ECC13}">
       <formula1>担当者</formula1>
     </dataValidation>
   </dataValidations>
@@ -2289,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
